--- a/data/UCL/program_details_sample.xlsx
+++ b/data/UCL/program_details_sample.xlsx
@@ -616,37 +616,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>manufacture and commercialisation of stem cell and gene therapies msc</t>
+          <t>chemical process engineering msc</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A minimum of an upper second-class Bachelor's degree in relevant subject (e.g. Life Sciences, Biotechnology, Bioengineering, Environmental Science, Engineering, Chemistry or Business with a Biotechnology component) from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply.</t>
+          <t>A minimum of an upper second-class Bachelor's degree in Chemical Engineering or a cognate discipline (such as Mechanical or Environmental Engineering, Chemistry and Physics) from a UK university or an overseas qualification of an equivalent standard.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rapid developments in the stem cell and gene therapy field have created skills shortages in this high-value manufacturing sector. This innovative and industrially-relevant MSc, which is co-developed and co-delivered by industry experts, provides key skills, practical training and expertise to develop future generations of engineers, scientists and business professionals with the breadth and depth required to manufacture and deliver 21st century medicines.</t>
+          <t>Chemical and process engineers play a major role in developing the expertise and technologies behind products we desire or depend on in everyday life; thereby enhancing our standard of living. This programme facilitates multidisciplinary collaboration between scientists and engineers, providing graduates with the advanced training necessary to enter the chemical and related process industries and become independent, self-directed engineers.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Core Practical Research Skills
-MSc Advanced Therapy Research Project
-Pre-clinical and Clinical Analysis of Advanced Therapies
-Emerging Tools and Technologies for New Medicines
-Advanced Therapy Manufacture
-Commercialisation, Regulation and Ethics of Advanced Therapies</t>
+          <t>未找到</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacture-and-commercialisation-stem-cell-and-gene-therapies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-process-engineering-msc</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1 calendar year</t>
+          <t>1 calendar year (full-time)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -656,17 +651,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>£41,500</t>
+          <t>£35,000</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>总分 7.0, 小分 6.5</t>
+          <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -676,7 +671,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
+          <t>未要求</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -695,6 +690,11 @@
         </is>
       </c>
       <c r="AE2" t="inlineStr">
+        <is>
+          <t>未找到, 项目页面不可用或者正在更新</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2:1</t>
         </is>
@@ -728,244 +728,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>global management of natural resources msc</t>
+          <t>civil engineering (with fluids) msc</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Normally a minimum of a second-class Bachelor’s degree in a relevant discipline – preferably engineering, Earth sciences, chemistry or finance/business - from a UK university or an overseas qualification of an equivalent standard. Relevant work experience may be taken into account.</t>
+          <t>A minimum of an upper second-class UK Bachelor's degree in civil or structural engineering or a closely related subject, or an overseas qualification of an equivalent standard. Applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered. For non-civil or structural engineering candidates we offer a Graduate Diploma in Civil Engineering, recognised by our accrediting body (the Joint Board of Moderators), which can be used as a pre-qualifying year for the Civil Engineering MSc.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>More than ever, there is a growing demand for versatile specialists and managers in the globalised natural resources and commodities industries. These industries rely on effective collaboration between scientists, engineers, analysts, managers, and investors. This programme gives students the opportunity to develop an integrated understanding of resource genesis, production, supply, socio-environmental footprint and sustainable practice, which is now essential.</t>
+          <t>This MSc aims to equip students with the skills of analysis and design necessary for employment as professional civil engineers and give them a solid academic background for becoming chartered engineers. The Fluids route is for those students who want to further specialise in this subject, but also wish to improve their general background in other civil engineering disciplines.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>Natural Gas Processing
-Minerals Usage, Extraction and Processing
-Prevention and Remediation of Environmental Contamination
-Dissertation
-Social Licensing
-Earth Resources and Sustainability
-Decision and Risk Analysis
-Business and Sustainability
-Renewable Energy in the Resources Sector
-Integrated Hydrogeology and Sustainable Water Management
-Geology for Global Managers and Engineers</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-management-natural-resources-msc</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1 calendar year</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>£38,300</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>relevant work experience may be taken into account.</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>biochemical engineering msc</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Normal entry requirements are at least a second-class Bachelor's degree from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply. As with any engineering discipline numeracy skills are important for the quantitative description of biological and physical phenomena. Evidence of numerical ability is requested as either an A level in Mathematics (or in exceptional cases, in Physics) or some mathematics studied at university. The department provides mathematics tutoring for Master's students throughout the year adjusted to a candidate's ability.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Have you ever wondered how the latest life science discoveries, such as a novel stem cell therapy, can move from the lab into commercial scale production? Would you like to know whether it is possible to produce bio-polymers (plastics) and biofuels from municipal or agricultural waste? If you are thinking of a career in the pharma or biotech industries, the Biochemical Engineering MSc could be the right programme for you.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>未找到</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1 calendar year</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>£35,000</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>civil engineering (with fluids) msc</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A minimum of an upper second-class UK Bachelor's degree in civil or structural engineering or a closely related subject, or an overseas qualification of an equivalent standard. Applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered. For non-civil or structural engineering candidates we offer a Graduate Diploma in Civil Engineering, recognised by our accrediting body (the Joint Board of Moderators), which can be used as a pre-qualifying year for the Civil Engineering MSc.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>This MSc aims to equip students with the skills of analysis and design necessary for employment as professional civil engineers and give them a solid academic background for becoming chartered engineers. The Fluids route is for those students who want to further specialise in this subject, but also wish to improve their general background in other civil engineering disciplines.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>Offshore and Coastal Engineering
 Environmental Fluid Mechanics
@@ -990,14 +766,252 @@
 Engineering Study of Rail Systems and Infrastructure</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1 calendar year (full-time)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>£35,000</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>clinical ophthalmic practice msc</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A minimum of a second-class Bachelor’s degree in a relevant discipline from a UK university or an overseas qualification of an equivalent standard. Candidates will need to have a professional healthcare qualification (in nursing or an allied healthcare profession). Students are also required to have at least one year’s ophthalmic experience and to be currently working in the field of ophthalmology.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>This programme will allow you to develop advanced knowledge of the eye, eye diseases and treatment and the research underpinning clinical practice. It is delivered by ophthalmologists, researchers and nurses who are at the forefront of ophthalmic research clinical practice at the Institute of Ophthalmology and Moorfields Eye Hospital Trust both institutions will be involved in the teaching.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Anatomy and Physiology
+Research and Statistics
+Ophthalmic Clinical Case Studies
+Clinical Care in Practice
+Physical assessment of the ophthalmic patient
+Ophthalmology Dissertation
+Glaucoma
+Medical Retina, Vitreoretinal, Systemic Diseases, Uveitis and Ocular Oncology
+Ophthalmic Accident and Emergency Clinical Practice
+Ophthalmic Theatre Practice</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-ophthalmic-practice-msc</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2 calendar years (part-time)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Fees to be confirmed</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>manufacture and commercialisation of stem cell and gene therapies msc</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A minimum of an upper second-class Bachelor's degree in relevant subject (e.g. Life Sciences, Biotechnology, Bioengineering, Environmental Science, Engineering, Chemistry or Business with a Biotechnology component) from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rapid developments in the stem cell and gene therapy field have created skills shortages in this high-value manufacturing sector. This innovative and industrially-relevant MSc, which is co-developed and co-delivered by industry experts, provides key skills, practical training and expertise to develop future generations of engineers, scientists and business professionals with the breadth and depth required to manufacture and deliver 21st century medicines.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Core Practical Research Skills
+MSc Advanced Therapy Research Project
+Pre-clinical and Clinical Analysis of Advanced Therapies
+Emerging Tools and Technologies for New Medicines
+Advanced Therapy Manufacture
+Commercialisation, Regulation and Ethics of Advanced Therapies</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacture-and-commercialisation-stem-cell-and-gene-therapies-msc</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1 calendar year</t>
+          <t>1 calendar year (full-time)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1007,17 +1021,17 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>£35,000</t>
+          <t>£41,500</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>总分 6.5, 小分 6.0</t>
+          <t>总分 7.0, 小分 6.5</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+          <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1027,7 +1041,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered.</t>
+          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1046,6 +1060,11 @@
         </is>
       </c>
       <c r="AE5" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>2:1</t>
         </is>
@@ -1079,17 +1098,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>chemical process engineering msc</t>
+          <t>biochemical engineering msc</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A minimum of an upper second-class Bachelor's degree in Chemical Engineering or a cognate discipline (such as Mechanical or Environmental Engineering, Chemistry and Physics) from a UK university or an overseas qualification of an equivalent standard.</t>
+          <t>Normal entry requirements are at least a second-class Bachelor's degree from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply. As with any engineering discipline numeracy skills are important for the quantitative description of biological and physical phenomena. Evidence of numerical ability is requested as either an A level in Mathematics (or in exceptional cases, in Physics) or some mathematics studied at university. The department provides mathematics tutoring for Master's students throughout the year adjusted to a candidate's ability.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Chemical and process engineers play a major role in developing the expertise and technologies behind products we desire or depend on in everyday life; thereby enhancing our standard of living. This programme facilitates multidisciplinary collaboration between scientists and engineers, providing graduates with the advanced training necessary to enter the chemical and related process industries and become independent, self-directed engineers.</t>
+          <t>Have you ever wondered how the latest life science discoveries, such as a novel stem cell therapy, can move from the lab into commercial scale production? Would you like to know whether it is possible to produce bio-polymers (plastics) and biofuels from municipal or agricultural waste? If you are thinking of a career in the pharma or biotech industries, the Biochemical Engineering MSc could be the right programme for you.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1099,12 +1118,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-process-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1 calendar year</t>
+          <t>1 calendar year (full-time)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1134,7 +1153,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>未要求</t>
+          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1154,7 +1173,12 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>2:2</t>
         </is>
       </c>
     </row>
@@ -1186,75 +1210,42 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>law llm</t>
+          <t>global management of natural resources msc</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Entrants to the UCL LLM must have ‘a good 2.1 with evidence of 1st class ability’ (or equivalent in other jurisdictions), and must provide evidence in their application of motivation, reasoning and analytical ability and communication skills.'A good 2.1’ shall normally mean an average of at least 65% (or equivalent in other jurisdictions) across all years of study, and ‘evidence of 1st class ability’ shall normally mean at least one 1st class mark (or equivalent in other jurisdictions) over the entire degree.We may be willing to consider applicants who are close to, but do not meet these quantitative criteria, where space on the programme allows. Such applicants must demonstrate that they excel in motivation, analytical and reasoning ability and communication skills. This needs to be demonstrated across the personal statement and the written work. Applicants with less than an average of 62% (or equivalent in other jurisdictions) across all years of study, will not normally be considered under these criteria.You need a law qualification to be considered for the LLM, i.e. Bachelor of Laws (LLB), Juris Doctor (JD), Graduate Diploma in Law (GDL). In exceptional circumstances, graduates without a law qualification but with work experience will be considered, however, experience must be relevant and a minimum of five years. This is a very uncommon route onto the programme.Graduates whose first degree is not in law will be considered for admission if they have an average of 65% across all years of undergraduate study, plus an average of at least 65% plus at least one mark over 70% in the Graduate Diploma in Law recognised by UK professional bodies (achieved or in progress). Alternatively, graduates whose first degree is not in law will be considered if they have an average of 65% across all years of undergraduate study, plus have successfully completed studies on a Solicitors Qualifying Examination full time programme of at least 12 months duration, usually resulting in a Masters qualification equivalent to a Merit classification, with an average of 65% in all assessments including a pass in the SQE on first attempt.</t>
+          <t>Normally a minimum of a second-class Bachelor’s degree in a relevant discipline – preferably engineering, Earth sciences, chemistry or finance/business - from a UK university or an overseas qualification of an equivalent standard. Relevant work experience may be taken into account.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>The Master of Laws (LLM) programme provides an ideal opportunity for you to acquire or develop your expertise in specialist legal subject areas informed by world-class, research-led teaching. An LLM is an excellent way for you to advance a career in law.</t>
+          <t>More than ever, there is a growing demand for versatile specialists and managers in the globalised natural resources and commodities industries. These industries rely on effective collaboration between scientists, engineers, analysts, managers, and investors. This programme gives students the opportunity to develop an integrated understanding of resource genesis, production, supply, socio-environmental footprint and sustainable practice, which is now essential.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Research Essay
-Jeremy Bentham and the Utilitarian Tradition
-International Human Rights Law
-Carriage of Goods by Sea
-Competition Law (EU and UK)
-International Commercial Litigation
-International Arbitration
-Corporate Finance
-International and Global Environmental Law
-International Humanitarian Law
-Economic Analysis of Law: Corporations and Markets
-Law and Policy of International Trade and the Environment
-International and European Refugee Law
-Access to Justice: Theory and Practice
-Jurisprudence and Legal Theory
-Law and Policy of International Courts and Tribunals
-Gender, Law and the State: Current Legal Issues
-Marine Insurance Law
-Legal Aspects of International Finance
-Company Law
-The Law and Regulation of Banks and Fintech Services
-Comparative Human Rights Law
-Aspects of National Security Law
-Law and Policy of Climate Change
-Competition Law, Regulation and the Intangible Economy
-Land Use, Sustainability and Environmental Justice
-Economics in Competition Law and Practice, The Role of
-Judges, Courts and Judicial Decision-Making
-Human Rights at Work
-Advanced Foundations of Environmental Law
-International Criminal Law
-International Law of Foreign Investment
-Criminal Law and Human Rights
-International Trade Law
-Law of Patents
-Law of Trade Marks and Brands
-Law of Copyright and Designs
-Law of Treaties
-Legal Needs and Legal Assistance
-Historical Development of the Common Law
-International and Commercial Trusts Law
-Environmental Lawyering
-Privacy, Data and Surveillance Law
-Discretion and the Rule of Law</t>
+          <t>Natural Gas Processing
+Minerals Usage, Extraction and Processing
+Prevention and Remediation of Environmental Contamination
+Dissertation
+Social Licensing
+Earth Resources and Sustainability
+Decision and Risk Analysis
+Business and Sustainability
+Renewable Energy in the Resources Sector
+Integrated Hydrogeology and Sustainable Water Management
+Geology for Global Managers and Engineers</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/law-llm</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-management-natural-resources-msc</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10 months</t>
+          <t>1 calendar year (full-time)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1264,17 +1255,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>£32,100</t>
+          <t>£38,300</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>总分 7.5, 小分 7.0</t>
+          <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Level 4: Overall score of 7.5 and a minimum of 7.0 in each component</t>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1284,7 +1275,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>in exceptional circumstances, graduates without a law qualification but with work experience will be considered, however, experience must be relevant and a minimum of five years.</t>
+          <t>relevant work experience may be taken into account.</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1304,7 +1295,12 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>2:2</t>
         </is>
       </c>
     </row>

--- a/data/UCL/program_details_sample.xlsx
+++ b/data/UCL/program_details_sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,30 +559,35 @@
       </c>
       <c r="AB1" t="inlineStr">
         <is>
+          <t>工作经验细则</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
           <t>作品集</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>GMAT</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>该专业对本地学生要求</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>英国本地要求展示用</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>专业细分方向</t>
         </is>
@@ -674,11 +679,6 @@
           <t>未要求</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>未要求</t>
@@ -691,10 +691,15 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>未找到, 项目页面不可用或者正在更新</t>
+          <t>未要求</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>2:1</t>
         </is>
@@ -728,20 +733,280 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>audiology</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. A minimum of a second-class Bachelor's degree in a relevant discipline from a UK university or an overseas qualification of an equivalent standard is the standard entry requirement.The Ear Institute recognises that some audiology professionals may have had different (non-degree) entries into the profession. Applicants with the BAAT qualification and/or a Certificate or Diploma in Hearing Therapy who also have at least five years of relevant clinical experience and appropriate registration with the RCCP may be accepted, depending on their relevant experience, and are encouraged to contact the Ear Institute to discuss their application.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Advanced Audiology is designed for practising audiologists looking to enhance their clinical skills. Graduates are eligible to apply for senior clinical roles in the NHS or private sector. A variety of specialist modules can be selected to suit your professional needs. The programme has a strong research and evidence-based practice foundation.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Advanced Audiology: Research Project
+Anatomy and Physiology of the Audio-Vestibular System
+Research Methods and Statistics
+Counselling
+Balance
+Signals, Systems, Acoustics and the Ear
+Auditory Processing and Related Disorders
+Vestibular Rehabilitation
+Paediatric Habilitation
+Advances in Auditory Implants
+Advanced Management of Tinnitus and Hyperacusis
+Paediatric Assessment
+Advanced adult rehabilitation</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-msc</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1 calendar year (full-time)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>£32,100</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+entry requirements
+applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. applicants with the baat qualification and/or a certificate or diploma in hearing therapy who also have at least five years of relevant clinical experience and appropriate registration with the rccp may be accepted, depending on their relevant experience, and are encouraged to contact the ear institute to discuss their application. applicants with the baat qualification and/or a certificate or diploma in hearing therapy who also have at least five years of relevant clinical experience and appropriate registration with the rccp may be accepted, depending on their relevant experience, and are encouraged to contact the ear institute to discuss their application. 
+entry requirements
+applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline.</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>global management of natural resources msc</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Normally a minimum of a second-class Bachelor’s degree in a relevant discipline – preferably engineering, Earth sciences, chemistry or finance/business - from a UK university or an overseas qualification of an equivalent standard. Relevant work experience may be taken into account.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>More than ever, there is a growing demand for versatile specialists and managers in the globalised natural resources and commodities industries. These industries rely on effective collaboration between scientists, engineers, analysts, managers, and investors. This programme gives students the opportunity to develop an integrated understanding of resource genesis, production, supply, socio-environmental footprint and sustainable practice, which is now essential.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Natural Gas Processing
+Minerals Usage, Extraction and Processing
+Prevention and Remediation of Environmental Contamination
+Dissertation
+Social Licensing
+Earth Resources and Sustainability
+Decision and Risk Analysis
+Business and Sustainability
+Renewable Energy in the Resources Sector
+Integrated Hydrogeology and Sustainable Water Management
+Geology for Global Managers and Engineers</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-management-natural-resources-msc</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1 calendar year (full-time)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>£38,300</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>加分项</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>relevant work experience may be taken into account. relevant work experience may be taken into account.</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>civil engineering (with fluids) msc</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>A minimum of an upper second-class UK Bachelor's degree in civil or structural engineering or a closely related subject, or an overseas qualification of an equivalent standard. Applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered. For non-civil or structural engineering candidates we offer a Graduate Diploma in Civil Engineering, recognised by our accrediting body (the Joint Board of Moderators), which can be used as a pre-qualifying year for the Civil Engineering MSc.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>This MSc aims to equip students with the skills of analysis and design necessary for employment as professional civil engineers and give them a solid academic background for becoming chartered engineers. The Fluids route is for those students who want to further specialise in this subject, but also wish to improve their general background in other civil engineering disciplines.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Offshore and Coastal Engineering
 Environmental Fluid Mechanics
@@ -766,235 +1031,236 @@
 Engineering Study of Rail Systems and Infrastructure</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>加分项</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered.</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>2:1</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>2:1</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>英国</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>clinical ophthalmic practice msc</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A minimum of a second-class Bachelor’s degree in a relevant discipline from a UK university or an overseas qualification of an equivalent standard. Candidates will need to have a professional healthcare qualification (in nursing or an allied healthcare profession). Students are also required to have at least one year’s ophthalmic experience and to be currently working in the field of ophthalmology.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>This programme will allow you to develop advanced knowledge of the eye, eye diseases and treatment and the research underpinning clinical practice. It is delivered by ophthalmologists, researchers and nurses who are at the forefront of ophthalmic research clinical practice at the Institute of Ophthalmology and Moorfields Eye Hospital Trust both institutions will be involved in the teaching.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Anatomy and Physiology
-Research and Statistics
-Ophthalmic Clinical Case Studies
-Clinical Care in Practice
-Physical assessment of the ophthalmic patient
-Ophthalmology Dissertation
-Glaucoma
-Medical Retina, Vitreoretinal, Systemic Diseases, Uveitis and Ocular Oncology
-Ophthalmic Accident and Emergency Clinical Practice
-Ophthalmic Theatre Practice</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-ophthalmic-practice-msc</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2 calendar years (part-time)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>biochemical engineering msc</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Normal entry requirements are at least a second-class Bachelor's degree from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply. As with any engineering discipline numeracy skills are important for the quantitative description of biological and physical phenomena. Evidence of numerical ability is requested as either an A level in Mathematics (or in exceptional cases, in Physics) or some mathematics studied at university. The department provides mathematics tutoring for Master's students throughout the year adjusted to a candidate's ability.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Have you ever wondered how the latest life science discoveries, such as a novel stem cell therapy, can move from the lab into commercial scale production? Would you like to know whether it is possible to produce bio-polymers (plastics) and biofuels from municipal or agricultural waste? If you are thinking of a career in the pharma or biotech industries, the Biochemical Engineering MSc could be the right programme for you.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>未找到</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1 calendar year (full-time)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Fees to be confirmed</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>£35,000</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>加分项</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>英国</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>manufacture and commercialisation of stem cell and gene therapies msc</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>A minimum of an upper second-class Bachelor's degree in relevant subject (e.g. Life Sciences, Biotechnology, Bioengineering, Environmental Science, Engineering, Chemistry or Business with a Biotechnology component) from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rapid developments in the stem cell and gene therapy field have created skills shortages in this high-value manufacturing sector. This innovative and industrially-relevant MSc, which is co-developed and co-delivered by industry experts, provides key skills, practical training and expertise to develop future generations of engineers, scientists and business professionals with the breadth and depth required to manufacture and deliver 21st century medicines.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Core Practical Research Skills
 MSc Advanced Therapy Research Project
@@ -1004,303 +1270,74 @@
 Commercialisation, Regulation and Ethics of Advanced Therapies</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacture-and-commercialisation-stem-cell-and-gene-therapies-msc</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>£41,500</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>总分 7.0, 小分 6.5</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>加分项</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>candidates offering recent industrial experience are also encouraged to apply.</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>2:1</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>biochemical engineering msc</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Normal entry requirements are at least a second-class Bachelor's degree from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply. As with any engineering discipline numeracy skills are important for the quantitative description of biological and physical phenomena. Evidence of numerical ability is requested as either an A level in Mathematics (or in exceptional cases, in Physics) or some mathematics studied at university. The department provides mathematics tutoring for Master's students throughout the year adjusted to a candidate's ability.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Have you ever wondered how the latest life science discoveries, such as a novel stem cell therapy, can move from the lab into commercial scale production? Would you like to know whether it is possible to produce bio-polymers (plastics) and biofuels from municipal or agricultural waste? If you are thinking of a career in the pharma or biotech industries, the Biochemical Engineering MSc could be the right programme for you.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>未找到</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1 calendar year (full-time)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>£35,000</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>global management of natural resources msc</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Normally a minimum of a second-class Bachelor’s degree in a relevant discipline – preferably engineering, Earth sciences, chemistry or finance/business - from a UK university or an overseas qualification of an equivalent standard. Relevant work experience may be taken into account.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>More than ever, there is a growing demand for versatile specialists and managers in the globalised natural resources and commodities industries. These industries rely on effective collaboration between scientists, engineers, analysts, managers, and investors. This programme gives students the opportunity to develop an integrated understanding of resource genesis, production, supply, socio-environmental footprint and sustainable practice, which is now essential.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Natural Gas Processing
-Minerals Usage, Extraction and Processing
-Prevention and Remediation of Environmental Contamination
-Dissertation
-Social Licensing
-Earth Resources and Sustainability
-Decision and Risk Analysis
-Business and Sustainability
-Renewable Energy in the Resources Sector
-Integrated Hydrogeology and Sustainable Water Management
-Geology for Global Managers and Engineers</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-management-natural-resources-msc</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1 calendar year (full-time)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>£38,300</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>relevant work experience may be taken into account.</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>2:2</t>
         </is>
       </c>
     </row>

--- a/data/UCL/program_details_sample.xlsx
+++ b/data/UCL/program_details_sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +589,72 @@
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>专业细分方向</t>
+          <t>专业细分方向1</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>专业细分方向2</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>专业细分方向3</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>专业细分方向4</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>专业细分方向5</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>专业细分方向6</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>专业细分方向7</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>专业细分方向8</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>专业细分方向9</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>专业细分方向10</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>专业细分方向11</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>专业细分方向12</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>专业细分方向13</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>专业细分方向14</t>
         </is>
       </c>
     </row>
@@ -621,17 +686,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>chemical process engineering msc</t>
+          <t>biochemical engineering msc</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A minimum of an upper second-class Bachelor's degree in Chemical Engineering or a cognate discipline (such as Mechanical or Environmental Engineering, Chemistry and Physics) from a UK university or an overseas qualification of an equivalent standard.</t>
+          <t>Normal entry requirements are at least a second-class Bachelor's degree from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply. As with any engineering discipline numeracy skills are important for the quantitative description of biological and physical phenomena. Evidence of numerical ability is requested as either an A level in Mathematics (or in exceptional cases, in Physics) or some mathematics studied at university. The department provides mathematics tutoring for Master's students throughout the year adjusted to a candidate's ability.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Chemical and process engineers play a major role in developing the expertise and technologies behind products we desire or depend on in everyday life; thereby enhancing our standard of living. This programme facilitates multidisciplinary collaboration between scientists and engineers, providing graduates with the advanced training necessary to enter the chemical and related process industries and become independent, self-directed engineers.</t>
+          <t>Have you ever wondered how the latest life science discoveries, such as a novel stem cell therapy, can move from the lab into commercial scale production? Would you like to know whether it is possible to produce bio-polymers (plastics) and biofuels from municipal or agricultural waste? If you are thinking of a career in the pharma or biotech industries, the Biochemical Engineering MSc could be the right programme for you.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -641,7 +706,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-process-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -676,7 +741,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>未要求</t>
+          <t>加分项</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -696,12 +766,12 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>2:2</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>有条件2:2</t>
         </is>
       </c>
     </row>
@@ -733,20 +803,142 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>manufacture and commercialisation of stem cell and gene therapies msc</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A minimum of an upper second-class Bachelor's degree in relevant subject (e.g. Life Sciences, Biotechnology, Bioengineering, Environmental Science, Engineering, Chemistry or Business with a Biotechnology component) from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Rapid developments in the stem cell and gene therapy field have created skills shortages in this high-value manufacturing sector. This innovative and industrially-relevant MSc, which is co-developed and co-delivered by industry experts, provides key skills, practical training and expertise to develop future generations of engineers, scientists and business professionals with the breadth and depth required to manufacture and deliver 21st century medicines.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Core Practical Research Skills
+MSc Advanced Therapy Research Project
+Pre-clinical and Clinical Analysis of Advanced Therapies
+Emerging Tools and Technologies for New Medicines
+Advanced Therapy Manufacture
+Commercialisation, Regulation and Ethics of Advanced Therapies</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacture-and-commercialisation-stem-cell-and-gene-therapies-msc</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1 calendar year (full-time)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>£41,500</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>总分 7.0, 小分 6.5</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>加分项</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>audiology</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. A minimum of a second-class Bachelor's degree in a relevant discipline from a UK university or an overseas qualification of an equivalent standard is the standard entry requirement.The Ear Institute recognises that some audiology professionals may have had different (non-degree) entries into the profession. Applicants with the BAAT qualification and/or a Certificate or Diploma in Hearing Therapy who also have at least five years of relevant clinical experience and appropriate registration with the RCCP may be accepted, depending on their relevant experience, and are encouraged to contact the Ear Institute to discuss their application.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Advanced Audiology is designed for practising audiologists looking to enhance their clinical skills. Graduates are eligible to apply for senior clinical roles in the NHS or private sector. A variety of specialist modules can be selected to suit your professional needs. The programme has a strong research and evidence-based practice foundation.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Advanced Audiology: Research Project
 Anatomy and Physiology of the Audio-Vestibular System
@@ -763,47 +955,47 @@
 Advanced adult rehabilitation</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-msc</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>£32,100</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>需要</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 entry requirements
@@ -812,74 +1004,74 @@
 applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline.</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>英国</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>global management of natural resources msc</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Normally a minimum of a second-class Bachelor’s degree in a relevant discipline – preferably engineering, Earth sciences, chemistry or finance/business - from a UK university or an overseas qualification of an equivalent standard. Relevant work experience may be taken into account.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>More than ever, there is a growing demand for versatile specialists and managers in the globalised natural resources and commodities industries. These industries rely on effective collaboration between scientists, engineers, analysts, managers, and investors. This programme gives students the opportunity to develop an integrated understanding of resource genesis, production, supply, socio-environmental footprint and sustainable practice, which is now essential.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Natural Gas Processing
 Minerals Usage, Extraction and Processing
@@ -888,125 +1080,125 @@
 Social Licensing
 Earth Resources and Sustainability
 Decision and Risk Analysis
-Business and Sustainability
 Renewable Energy in the Resources Sector
 Integrated Hydrogeology and Sustainable Water Management
-Geology for Global Managers and Engineers</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+Geology for Global Managers and Engineers
+Business and Sustainability</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-management-natural-resources-msc</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>£38,300</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>加分项</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>relevant work experience may be taken into account. relevant work experience may be taken into account.</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>英国</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>civil engineering (with fluids) msc</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>A minimum of an upper second-class UK Bachelor's degree in civil or structural engineering or a closely related subject, or an overseas qualification of an equivalent standard. Applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered. For non-civil or structural engineering candidates we offer a Graduate Diploma in Civil Engineering, recognised by our accrediting body (the Joint Board of Moderators), which can be used as a pre-qualifying year for the Civil Engineering MSc.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>This MSc aims to equip students with the skills of analysis and design necessary for employment as professional civil engineers and give them a solid academic background for becoming chartered engineers. The Fluids route is for those students who want to further specialise in this subject, but also wish to improve their general background in other civil engineering disciplines.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Offshore and Coastal Engineering
 Environmental Fluid Mechanics
@@ -1031,191 +1223,74 @@
 Engineering Study of Rail Systems and Infrastructure</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>加分项</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered.</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>2:1</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>biochemical engineering msc</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Normal entry requirements are at least a second-class Bachelor's degree from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply. As with any engineering discipline numeracy skills are important for the quantitative description of biological and physical phenomena. Evidence of numerical ability is requested as either an A level in Mathematics (or in exceptional cases, in Physics) or some mathematics studied at university. The department provides mathematics tutoring for Master's students throughout the year adjusted to a candidate's ability.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Have you ever wondered how the latest life science discoveries, such as a novel stem cell therapy, can move from the lab into commercial scale production? Would you like to know whether it is possible to produce bio-polymers (plastics) and biofuels from municipal or agricultural waste? If you are thinking of a career in the pharma or biotech industries, the Biochemical Engineering MSc could be the right programme for you.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>未找到</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1 calendar year (full-time)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>£35,000</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>加分项</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2:2</t>
+          <t>有条件2:2</t>
         </is>
       </c>
     </row>
@@ -1247,32 +1322,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>manufacture and commercialisation of stem cell and gene therapies msc</t>
+          <t>chemical process engineering msc</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A minimum of an upper second-class Bachelor's degree in relevant subject (e.g. Life Sciences, Biotechnology, Bioengineering, Environmental Science, Engineering, Chemistry or Business with a Biotechnology component) from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply.</t>
+          <t>A minimum of an upper second-class Bachelor's degree in Chemical Engineering or a cognate discipline (such as Mechanical or Environmental Engineering, Chemistry and Physics) from a UK university or an overseas qualification of an equivalent standard.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rapid developments in the stem cell and gene therapy field have created skills shortages in this high-value manufacturing sector. This innovative and industrially-relevant MSc, which is co-developed and co-delivered by industry experts, provides key skills, practical training and expertise to develop future generations of engineers, scientists and business professionals with the breadth and depth required to manufacture and deliver 21st century medicines.</t>
+          <t>Chemical and process engineers play a major role in developing the expertise and technologies behind products we desire or depend on in everyday life; thereby enhancing our standard of living. This programme facilitates multidisciplinary collaboration between scientists and engineers, providing graduates with the advanced training necessary to enter the chemical and related process industries and become independent, self-directed engineers.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Core Practical Research Skills
-MSc Advanced Therapy Research Project
-Pre-clinical and Clinical Analysis of Advanced Therapies
-Emerging Tools and Technologies for New Medicines
-Advanced Therapy Manufacture
-Commercialisation, Regulation and Ethics of Advanced Therapies</t>
+          <t>未找到</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacture-and-commercialisation-stem-cell-and-gene-therapies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-process-engineering-msc</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1287,17 +1357,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>£41,500</t>
+          <t>£35,000</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>总分 7.0, 小分 6.5</t>
+          <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1307,12 +1377,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>加分项</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
+          <t>未要求</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">

--- a/data/UCL/program_details_sample.xlsx
+++ b/data/UCL/program_details_sample.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:BC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,521 +424,1284 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>﻿地区</t>
+          <t>专业ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>地区</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>学校英文名</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>学校中文名</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>QS排名2023</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>QS排名2022</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>学院</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>学院中文</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>专业</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>专业中文</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>相关背景要求</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>相关背景要求中</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>项目简介</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>项目简介中</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>课程列表英</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>课程列表中</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
         <is>
           <t>官网链接</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>课程时长1(学制)</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>课程时长2</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>课程时长3</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>课程时长4</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>入学月1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>入学月2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>入学月3</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>入学月4</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>课程费用</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>课程校区</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>雅思要求</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>雅思备注</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>托福要求</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>托福备注</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>面/笔试要求</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>面/笔试要求细则</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>工作经验（年）</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>工作经验细则</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>作品集</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>作品集细则</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
         <is>
           <t>GMAT</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>该专业对本地学生要求</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>英国本地要求展示用</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>专业细分方向1</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>专业细分方向2</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>专业细分方向3</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>专业细分方向4</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>专业细分方向5</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>专业细分方向6</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>专业细分方向7</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>专业细分方向8</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>专业细分方向9</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>专业细分方向10</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>专业细分方向11</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>专业细分方向12</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>专业细分方向13</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>专业细分方向14</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>biochemical engineering msc</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Normal entry requirements are at least a second-class Bachelor's degree from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply. As with any engineering discipline numeracy skills are important for the quantitative description of biological and physical phenomena. Evidence of numerical ability is requested as either an A level in Mathematics (or in exceptional cases, in Physics) or some mathematics studied at university. The department provides mathematics tutoring for Master's students throughout the year adjusted to a candidate's ability.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Have you ever wondered how the latest life science discoveries, such as a novel stem cell therapy, can move from the lab into commercial scale production? Would you like to know whether it is possible to produce bio-polymers (plastics) and biofuels from municipal or agricultural waste? If you are thinking of a career in the pharma or biotech industries, the Biochemical Engineering MSc could be the right programme for you.</t>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>未找到</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
+          <t>Msc Advanced Audiology: Audiovestibular Medicine</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>A UK medical degree or an overseas qualification of an equivalent standard is required. Applicants should also have the relevant postgraduate clinical experience in their parent medical specialty. As there will be clinical placements within the NHS, students will also be expected to satisfy the requirements of the Disclosure and Barring Service (DBS) check and Occupational Health.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>The programme aims to provide the theoretical, clinical and research skills necessary for physicians who wish to pursue a career in audiovestibular medicine.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Audio Vestibular Medicine: Research Project
+Anatomy and Physiology of the Audio-Vestibular System
+Signals, Systems, Acoustics and the Ear
+Research Methods and Statistics
+Imaging
+Diagnostic Audiology
+Introduction to Amplification and Aural Rehabilitation
+Balance
+Paediatric Audiology
+Auditory Processing and Related Disorders
+Vestibular Rehabilitation
+Advances in Auditory Implants
+Advanced Management of Tinnitus and Hyperacusis
+Clinical Diagnostics for Audiovestibular Medicine</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-audiovestibular-medicine-msc</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>£35,000</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>加分项</t>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>£32,100</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
+          <t>总分 7.5, 小分 7.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>未要求</t>
+          <t>Level 4: Overall score of 7.5 and a minimum of 7.0 in each component</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>applicants should also have the relevant postgraduate clinical experience in their parent medical specialty.</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>有条件2:2</t>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>未要求</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>manufacture and commercialisation of stem cell and gene therapies msc</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A minimum of an upper second-class Bachelor's degree in relevant subject (e.g. Life Sciences, Biotechnology, Bioengineering, Environmental Science, Engineering, Chemistry or Business with a Biotechnology component) from a UK university or the equivalent from an approved overseas institution. Candidates offering recent industrial experience are also encouraged to apply.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Rapid developments in the stem cell and gene therapy field have created skills shortages in this high-value manufacturing sector. This innovative and industrially-relevant MSc, which is co-developed and co-delivered by industry experts, provides key skills, practical training and expertise to develop future generations of engineers, scientists and business professionals with the breadth and depth required to manufacture and deliver 21st century medicines.</t>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Core Practical Research Skills
-MSc Advanced Therapy Research Project
-Pre-clinical and Clinical Analysis of Advanced Therapies
-Emerging Tools and Technologies for New Medicines
-Advanced Therapy Manufacture
-Commercialisation, Regulation and Ethics of Advanced Therapies</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacture-and-commercialisation-stem-cell-and-gene-therapies-msc</t>
+          <t>Msc Advanced Audiology: Otology And Skull Base Surgery</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>A UK medical degree or an overseas qualification of an equivalent standard is required. Applicants should also have the relevant postgraduate clinical experience in their parent medical specialty. As there will be clinical placements within the NHS, students will also be expected to satisfy the requirements of the Disclosure and Barring Service (DBS) check and Occupational Health.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>This MSc is structured to provide the theoretical, scientific, clinical, research and vocational skills necessary to practise enhanced otology, audiovestibular medicine and audiology. The programme is designed for ENT surgeons, audiovestibular physicians, paediatricians, GPs, neurologists and other trainees and physicians with an interest in the medical aspects of audiology who wish to develop or enhance their careers or specialise in otology.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Imaging
+Audio Vestibular Medicine: Research Project
+Anatomy and Physiology of the Audio-Vestibular System
+Research Methods and Statistics
+Medical and Surgical Treatment of Hearing and Balance Disorders
+Lateral Skull Base and Facial Nerve
+Diagnostic Audiology
+Introduction to Amplification and Aural Rehabilitation
+Balance
+Paediatric Audiology
+Auditory Processing and Related Disorders
+Advances in Auditory Implants
+Advanced Management of Tinnitus and Hyperacusis</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-otology-and-skull-base-surgery-msc</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>£41,500</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>总分 7.0, 小分 6.5</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>加分项</t>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>£32,100</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>candidates offering recent industrial experience are also encouraged to apply.</t>
+          <t>总分 7.5, 小分 7.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>未要求</t>
+          <t>Level 4: Overall score of 7.5 and a minimum of 7.0 in each component</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2:1</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>2:1</t>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>applicants should also have the relevant postgraduate clinical experience in their parent medical specialty.</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>未要求</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>audiology</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Msc Advanced Materials Science (energy Storage)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>A minimum of a second-class Bachelor's degree from a UK university or an overseas qualification of an equivalent standard.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>With global challenges in climate, environment, healthcare and economy demand, there is increasing need for scientific experts and entrepreneurs who can develop novel materials with advanced properties - addressing critical issues from energy to healthcare - and take scientific discoveries to the commercial world. This degree combines frontline research-based teaching from across UCL to train the next generation of materials scientists.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Microstructural Control in Advanced Materials
+Materials Design, Selection and Discovery
+Materials Innovation for Renewable Energy
+Advanced Materials Characterisation
+Advanced Energy Storage
+Advanced Materials Processing and Manufacturing
+Research Methodology
+Literature Project
+Research Project</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-materials-science-energy-storage-msc</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1 calendar year (full-time)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>£35,000</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Dip Advanced Educational Practice Grad</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>An ordinary degree or level 5 equivalent qualification (e.g. Cambridge International Education Professional Development Qualification studied in English) as this is an Honours level award (i.e. level 6).</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This Graduate Diploma has been developed to enable participants to reflect on their own educational practice, taking a professional academic approach. It works as excellent continuing professional development for teachers, teaching assistants and others working in educational settings. The flexibility is ideal for those working full-time, such that modules can be studied in any order. </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Independent Study
+Developing Mentoring Practices
+Supporting Learners and Learning
+The Action Researcher: Exploring Contexts and Issues
+Teacher as Author: Curriculum Design and Development
+Developing the Role of the Higher or Further Education Tutor</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-educational-practice-grad-dip</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1 academic year (full-time)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>January 2023</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>£16,200</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>未找到</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Cert Advanced Architectural Research Pg</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>The normal minimum qualifications are a Master’s degree in architecture from a UK university or an overseas qualification of an equivalent standard, or an equivalent professional architecture or design qualification.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>In architecture, research and practice go hand in hand, with ground-breaking design inspiring great research and vice versa. This programme allows students to develop their own research and/or design to an advanced level, ready to push new boundaries and change normalised modes of working either in academia or industry. Many students on this programme work with their tutors to clarify a PhD proposal.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Advanced Architectural Research Submission</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-architectural-research-pg-cert</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>3 months (full-time)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>£10,700</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>未找到</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Msc Advanced Clinical Practice In Ophthalmology (integrated Degree Apprenticeship)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>A minimum of an upper second-class UK Bachelor's degree in Optometry, Ophthalmology, Orthoptics or Nursing with an Ophthalmic speciality (Ophthalmic nurses who already have OPT level 1 and 2 competencies desirable). Applicants also require a minimum of level 2/GCSE grade C or equivalent in Mathematics and English. In addition, applicants will need to be employed in the UK by an employer with access to apprenticeship funding who is willing to support throughout the course both financially and in completing work e.g. providing a minimum 20% off the job (OTJ) training time, providing an Educational Supervisor to support locally, managing OTJ activities and hours. Applicants will also need to be working at least 30 hours per week for the employer hosting the apprenticeship.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>The aim of this programme is to develop clinical practice and to contribute to the advancement of eye care delivery in primary, secondary or tertiary care settings. The programme has been developed by practicing clinicians for multidisciplinary ophthalmic non-medical clinicians such as optometrists, orthoptists and ophthalmic nurses. The structure of the programme is based on the four pillars of clinical, leadership, education and research.</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Advanced Practice in Cataract
+Fundamental Medical Retina
+Research and Statistics for Non Medical Professionals
+Clinical Leadership for Non Medical Professionals
+Fundamental Glaucoma
+Fundamental Ocular Emergencies
+Principles of Advanced Practice
+Specialist Medical Retina (Medical Retina 2)
+Specialist Ocular Emergencies
+Specialist Glaucoma (Glaucoma 3)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-clinical-practice-ophthalmology-integrated-degree-apprenticeship-msc</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>3 academic years (flexible)</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Fees to be confirmed</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>总分 7.0, 小分 6.5</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Msc Advanced Biomedical Imaging</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>A minimum of a second-class Bachelor's degree in a scientific or medical discipline from a UK university or an overseas qualification of an equivalent standard.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Imaging has contributed to some of the most significant advances in biomedicine and healthcare. This one-year MSc will equip you with detailed knowledge of the imaging techniques that are shaping biomedical research and translational medicine around the world. You will develop the skills and research experience needed to progress in this highly sought-after field.</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Advanced Biomedical Imaging Techniques I
+Advanced Biomedical Imaging Techniques II
+Practical Preclinical Research
+Translational Biomedical Imaging of Disease and Therapy I
+Translational Biomedical Imaging of Disease and Therapy II
+Science Communication for Biomedicine
+Research Project (Advanced Biomedical Imaging)
+Precision Diagnosis for Precision Medicine
+Translational Clinical Imaging</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-biomedical-imaging-msc</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1 academic year (full-time)</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>£32,100</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Cert Advanced Aesthetic Dentistry Pg</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>All applicants must hold an approved dental qualification.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>This programme explores the most important topics in aesthetic dentistry, making it ideal for practitioners looking to expand into this sought-after field. It covers scientific documentation, clinical applications, treatment planning, modern materials, and step-by-step clinical procedures. This one-year course is available part-time with regular attendance or by distance-learning with three condensed week-long sessions in London.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Science and Properties of Dental Composites and Ceramics
+Interdisciplinary Clinical Dental Aesthetics</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-aesthetic-dentistry-pg-cert</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1 calendar year (part-time)</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>£32,100 (part-time)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>总分 7.0, 小分 6.5</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>未找到</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Msc Advanced Audiology</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>Applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. A minimum of a second-class Bachelor's degree in a relevant discipline from a UK university or an overseas qualification of an equivalent standard is the standard entry requirement.The Ear Institute recognises that some audiology professionals may have had different (non-degree) entries into the profession. Applicants with the BAAT qualification and/or a Certificate or Diploma in Hearing Therapy who also have at least five years of relevant clinical experience and appropriate registration with the RCCP may be accepted, depending on their relevant experience, and are encouraged to contact the Ear Institute to discuss their application.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Advanced Audiology is designed for practising audiologists looking to enhance their clinical skills. Graduates are eligible to apply for senior clinical roles in the NHS or private sector. A variety of specialist modules can be selected to suit your professional needs. The programme has a strong research and evidence-based practice foundation.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Advanced Audiology: Research Project
 Anatomy and Physiology of the Audio-Vestibular System
@@ -955,454 +1718,194 @@
 Advanced adult rehabilitation</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-msc</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>£32,100</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
         <is>
           <t>需要</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-entry requirements
-applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. applicants with the baat qualification and/or a certificate or diploma in hearing therapy who also have at least five years of relevant clinical experience and appropriate registration with the rccp may be accepted, depending on their relevant experience, and are encouraged to contact the ear institute to discuss their application. applicants with the baat qualification and/or a certificate or diploma in hearing therapy who also have at least five years of relevant clinical experience and appropriate registration with the rccp may be accepted, depending on their relevant experience, and are encouraged to contact the ear institute to discuss their application. 
-entry requirements
-applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline.</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. applicants with the baat qualification and/or a certificate or diploma in hearing therapy who also have at least five years of relevant clinical experience and appropriate registration with the rccp may be accepted, depending on their relevant experience, and are encouraged to contact the ear institute to discuss their application.</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="11">
+      <c r="C11" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>global management of natural resources msc</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Normally a minimum of a second-class Bachelor’s degree in a relevant discipline – preferably engineering, Earth sciences, chemistry or finance/business - from a UK university or an overseas qualification of an equivalent standard. Relevant work experience may be taken into account.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>More than ever, there is a growing demand for versatile specialists and managers in the globalised natural resources and commodities industries. These industries rely on effective collaboration between scientists, engineers, analysts, managers, and investors. This programme gives students the opportunity to develop an integrated understanding of resource genesis, production, supply, socio-environmental footprint and sustainable practice, which is now essential.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Natural Gas Processing
-Minerals Usage, Extraction and Processing
-Prevention and Remediation of Environmental Contamination
-Dissertation
-Social Licensing
-Earth Resources and Sustainability
-Decision and Risk Analysis
-Renewable Energy in the Resources Sector
-Integrated Hydrogeology and Sustainable Water Management
-Geology for Global Managers and Engineers
-Business and Sustainability</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-management-natural-resources-msc</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Msc Advanced Materials Science (data-driven Innovation)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>A minimum of a second-class Bachelor's degree from a UK university or an overseas qualification of an equivalent standard.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>The digital revolution and recent advents in data science, machine learning (ML) and artificial intelligence (AI) have sparked demand for next generation materials data scientists, able to utilise these emerging technologies for enhanced materials design and discovery. This programme will enable students to explore how the establishment of  Processing-Structure-Properties-Performance (PSPP) relationships can be significantly enhanced using data driven approaches.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Materials Design, Selection and Discovery
+Advanced Materials Characterisation
+Advanced Materials Processing and Manufacturing
+Research Methodology
+Literature Project
+Research Project
+Microstructural Control in Advanced Materials
+Machine Learning and Data-Driven Materials Science
+Integrated Data-Driven Materials Science and Digitalisation</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-materials-science-data-driven-innovation-msc</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>£38,300</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>£35,000</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>加分项</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>relevant work experience may be taken into account. relevant work experience may be taken into account.</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>2:2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>civil engineering (with fluids) msc</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A minimum of an upper second-class UK Bachelor's degree in civil or structural engineering or a closely related subject, or an overseas qualification of an equivalent standard. Applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered. For non-civil or structural engineering candidates we offer a Graduate Diploma in Civil Engineering, recognised by our accrediting body (the Joint Board of Moderators), which can be used as a pre-qualifying year for the Civil Engineering MSc.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>This MSc aims to equip students with the skills of analysis and design necessary for employment as professional civil engineers and give them a solid academic background for becoming chartered engineers. The Fluids route is for those students who want to further specialise in this subject, but also wish to improve their general background in other civil engineering disciplines.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Offshore and Coastal Engineering
-Environmental Fluid Mechanics
-Urban Flooding and Drainage
-Financial Aspects of Project Engineering
-Research Project
-Environmental Systems
-Roads and Underground Infrastructure: Design, Construction and Maintenance
-Advanced Soil Mechanics
-Introduction to Seismic Design of Structures
-Seismic Risk Assessment
-Geotechnical Earthquake Engineering
-Finite-Element Modelling and Numerical Methods
-Advanced Structural Analysis
-Applied Building Information Modelling
-Environmental Modelling
-Advanced Civil Engineering Materials
-Life Cycle Assessment
-Building Energy Efficiency
-Catastrophe Risk Modelling
-Waste and Resource Efficiency
-Engineering Study of Rail Systems and Infrastructure</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1 calendar year (full-time)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>£35,000</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>加分项</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>applicants with a good performance in the core subjects (design, structures, geotechnics, and fluids) or extensive work experience covering these areas may be considered.</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>有条件2:2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>chemical process engineering msc</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>A minimum of an upper second-class Bachelor's degree in Chemical Engineering or a cognate discipline (such as Mechanical or Environmental Engineering, Chemistry and Physics) from a UK university or an overseas qualification of an equivalent standard.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Chemical and process engineers play a major role in developing the expertise and technologies behind products we desire or depend on in everyday life; thereby enhancing our standard of living. This programme facilitates multidisciplinary collaboration between scientists and engineers, providing graduates with the advanced training necessary to enter the chemical and related process industries and become independent, self-directed engineers.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>未找到</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-process-engineering-msc</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1 calendar year (full-time)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>£35,000</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>2:1</t>
         </is>
       </c>
     </row>

--- a/data/UCL/program_details_sample.xlsx
+++ b/data/UCL/program_details_sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,205 +494,210 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>课程介绍英</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>课程列表英</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>课程列表中</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>官网链接</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>课程时长1(学制)</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>课程时长2</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>课程时长3</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>课程时长4</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>入学月1</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>入学月2</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>入学月3</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>入学月4</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>课程费用</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>课程校区</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>雅思要求</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>雅思备注</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>托福要求</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>托福备注</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>面/笔试要求</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>面/笔试要求细则</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>工作经验（年）</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>工作经验细则</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>作品集</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>作品集细则</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>GMAT</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>该专业对本地学生要求</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>英国本地要求展示用</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>专业细分方向1</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>专业细分方向2</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>专业细分方向3</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>专业细分方向4</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>专业细分方向5</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>专业细分方向6</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>专业细分方向7</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>专业细分方向8</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>专业细分方向9</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>专业细分方向10</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>专业细分方向11</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>专业细分方向12</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>专业细分方向13</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>专业细分方向14</t>
         </is>
@@ -739,7 +744,7 @@
           <t>A postgraduate degree in behaviour change centred around the systematic application of behaviour change theory and methods to design, implement and evaluate interventions, primarily using the Behaviour Change Wheel. This approach equips students to work in this emerging and exciting field to address social, health and environmental challenges.</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Behaviour Change: An Interdisciplinary Approach
 Changing Behaviour: Intervention Development and Evaluation
@@ -748,57 +753,52 @@
 Theories and Models of Behaviour Change</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/behaviour-change-msc</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>£32,100</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>总分 7.0, 小分 6.5</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>需要</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>practical experience with a behaviour change focus (through paid or voluntary work) is also beneficial. for the pg diploma or certificate, a minimum of an upper second-class uk bachelor's degree or an overseas qualification of an equivalent standard in any academic discipline and relevant research and/or practical experience (e.g.</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>未要求</t>
         </is>
@@ -810,10 +810,15 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>2:1</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>2:1</t>
         </is>
@@ -842,404 +847,25 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Faculty of Brain Sciences | Ear Institute</t>
+          <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Msc Advanced Audiology</t>
+          <t>Msc Advanced Materials Science (data-driven Innovation)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. A minimum of a second-class Bachelor's degree in a relevant discipline from a UK university or an overseas qualification of an equivalent standard is the standard entry requirement.The Ear Institute recognises that some audiology professionals may have had different (non-degree) entries into the profession. Applicants with the BAAT qualification and/or a Certificate or Diploma in Hearing Therapy who also have at least five years of relevant clinical experience and appropriate registration with the RCCP may be accepted, depending on their relevant experience, and are encouraged to contact the Ear Institute to discuss their application.</t>
+          <t>A minimum of a second-class Bachelor's degree from a UK university or an overseas qualification of an equivalent standard.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Advanced Audiology is designed for practising audiologists looking to enhance their clinical skills. Graduates are eligible to apply for senior clinical roles in the NHS or private sector. A variety of specialist modules can be selected to suit your professional needs. The programme has a strong research and evidence-based practice foundation.</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Advanced Audiology: Research Project
-Anatomy and Physiology of the Audio-Vestibular System
-Research Methods and Statistics
-Counselling
-Signals, Systems, Acoustics and the Ear
-Auditory Processing and Related Disorders
-Vestibular Rehabilitation
-Paediatric Habilitation
-Advances in Auditory Implants
-Advanced Management of Tinnitus and Hyperacusis
-Paediatric Assessment
-Advanced adult rehabilitation
-Balance</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-msc</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1 calendar year (full-time)</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>£32,100</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>需要</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. applicants with the baat qualification and/or a certificate or diploma in hearing therapy who also have at least five years of relevant clinical experience and appropriate registration with the rccp may be accepted, depending on their relevant experience, and are encouraged to contact the ear institute to discuss their application.</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Msc Advanced Clinical Practice In Ophthalmology (integrated Degree Apprenticeship)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>A minimum of an upper second-class UK Bachelor's degree in Optometry, Ophthalmology, Orthoptics or Nursing with an Ophthalmic speciality (Ophthalmic nurses who already have OPT level 1 and 2 competencies desirable). Applicants also require a minimum of level 2/GCSE grade C or equivalent in Mathematics and English. In addition, applicants will need to be employed in the UK by an employer with access to apprenticeship funding who is willing to support throughout the course both financially and in completing work e.g. providing a minimum 20% off the job (OTJ) training time, providing an Educational Supervisor to support locally, managing OTJ activities and hours. Applicants will also need to be working at least 30 hours per week for the employer hosting the apprenticeship.</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>The aim of this programme is to develop clinical practice and to contribute to the advancement of eye care delivery in primary, secondary or tertiary care settings. The programme has been developed by practicing clinicians for multidisciplinary ophthalmic non-medical clinicians such as optometrists, orthoptists and ophthalmic nurses. The structure of the programme is based on the four pillars of clinical, leadership, education and research.</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Advanced Practice in Cataract
-Fundamental Medical Retina
-Research and Statistics for Non Medical Professionals
-Clinical Leadership for Non Medical Professionals
-Fundamental Glaucoma
-Fundamental Ocular Emergencies
-Principles of Advanced Practice
-Specialist Medical Retina (Medical Retina 2)
-Specialist Ocular Emergencies
-Specialist Glaucoma (Glaucoma 3)</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-clinical-practice-ophthalmology-integrated-degree-apprenticeship-msc</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>3 academic years (flexible)</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Fees to be confirmed</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>总分 7.0, 小分 6.5</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Faculty of Brain Sciences | Ear Institute</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Msc Advanced Audiology: Otology And Skull Base Surgery</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>A UK medical degree or an overseas qualification of an equivalent standard is required. Applicants should also have the relevant postgraduate clinical experience in their parent medical specialty. As there will be clinical placements within the NHS, students will also be expected to satisfy the requirements of the Disclosure and Barring Service (DBS) check and Occupational Health.</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>This MSc is structured to provide the theoretical, scientific, clinical, research and vocational skills necessary to practise enhanced otology, audiovestibular medicine and audiology. The programme is designed for ENT surgeons, audiovestibular physicians, paediatricians, GPs, neurologists and other trainees and physicians with an interest in the medical aspects of audiology who wish to develop or enhance their careers or specialise in otology.</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Imaging
-Audio Vestibular Medicine: Research Project
-Anatomy and Physiology of the Audio-Vestibular System
-Research Methods and Statistics
-Medical and Surgical Treatment of Hearing and Balance Disorders
-Lateral Skull Base and Facial Nerve
-Diagnostic Audiology
-Introduction to Amplification and Aural Rehabilitation
-Balance
-Paediatric Audiology
-Auditory Processing and Related Disorders
-Advances in Auditory Implants
-Advanced Management of Tinnitus and Hyperacusis</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-otology-and-skull-base-surgery-msc</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1 calendar year (full-time)</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>£32,100</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>总分 7.5, 小分 7.0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Level 4: Overall score of 7.5 and a minimum of 7.0 in each component</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>需要</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>applicants should also have the relevant postgraduate clinical experience in their parent medical specialty.</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Msc Advanced Materials Science (data-driven Innovation)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>A minimum of a second-class Bachelor's degree from a UK university or an overseas qualification of an equivalent standard.</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
           <t>The digital revolution and recent advents in data science, machine learning (ML) and artificial intelligence (AI) have sparked demand for next generation materials data scientists, able to utilise these emerging technologies for enhanced materials design and discovery. This programme will enable students to explore how the establishment of  Processing-Structure-Properties-Performance (PSPP) relationships can be significantly enhanced using data driven approaches.</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Materials Design, Selection and Discovery
 Advanced Materials Characterisation
@@ -1252,357 +878,114 @@
 Integrated Data-Driven Materials Science and Digitalisation</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-materials-science-data-driven-innovation-msc</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
+    <row r="4">
+      <c r="C4" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Msc B</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>A minimum of a second-class UK degree in an appropriate subject or an overseas qualification of an equivalent standard. Applicants with extensive experience in the field may also be considered. A design/creative portfolio is also expected. Applicants will be asked to submit a portfolio of their design work once their completed application has been received, and should not send or upload work until it has been requested.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Architectural Design at The Bartlett is invested in the frontiers of advanced architecture and design and its convergence with science and technology. Composed of an international staff of experts and students, this programme is designed to deliver diverse yet focused strands of speculative research, emphasising the key role computation plays within complex design synthesis.</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Architectural Design Thesis Final Project
-Architectural Design Thesis Initial Projects
-Architectural Design: Historical, Cultural and Theoretical Skills
-Bartlett Architecture Skills Elective (B-Pro Courses)
-Design Thesis Report</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-design</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1 calendar year (full-time)</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>September 2023</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>£35,000</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>加分项</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>applicants with extensive experience in the field may also be considered.</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>需要</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>a design/creative portfolio is also expected. applicants will be asked to submit a portfolio of their design work once their completed application has been received, and should not send or upload work until it has been requested.</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>2:2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>IOE | Curriculum, Pedagogy and Assessment</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Master's Advanced Educational Practice Grad Dip</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>An ordinary degree or level 5 equivalent qualification (e.g. Cambridge International Education Professional Development Qualification studied in English) as this is an Honours level award (i.e. level 6).</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This Graduate Diploma has been developed to enable participants to reflect on their own educational practice, taking a professional academic approach. It works as excellent continuing professional development for teachers, teaching assistants and others working in educational settings. The flexibility is ideal for those working full-time, such that modules can be studied in any order. </t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>The Action Researcher: Exploring Contexts and Issues
-Independent Study
-Developing Mentoring Practices
-Supporting Learners and Learning
-Teacher as Author: Curriculum Design and Development
-Developing the Role of the Higher or Further Education Tutor</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-educational-practice-grad-dip</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>1 academic year (full-time)</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>January 2023</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>£16,200</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>未找到</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>伦敦大学学院</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Faculty of Brain Sciences | Ear Institute</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Msc Advanced Audiology: Audiovestibular Medicine</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>A UK medical degree or an overseas qualification of an equivalent standard is required. Applicants should also have the relevant postgraduate clinical experience in their parent medical specialty. As there will be clinical placements within the NHS, students will also be expected to satisfy the requirements of the Disclosure and Barring Service (DBS) check and Occupational Health.</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>The programme aims to provide the theoretical, clinical and research skills necessary for physicians who wish to pursue a career in audiovestibular medicine.</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Audio Vestibular Medicine: Research Project
 Anatomy and Physiology of the Audio-Vestibular System
@@ -1620,119 +1003,119 @@
 Clinical Diagnostics for Audiovestibular Medicine</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-audiovestibular-medicine-msc</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>£32,100</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>总分 7.5, 小分 7.0</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Level 4: Overall score of 7.5 and a minimum of 7.0 in each component</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>需要</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>applicants should also have the relevant postgraduate clinical experience in their parent medical specialty.</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>未要求</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
+    <row r="5">
+      <c r="C5" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Faculty of Medical Sciences | Division of Medicine</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Msc Advanced Biomedical Imaging</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>A minimum of a second-class Bachelor's degree in a scientific or medical discipline from a UK university or an overseas qualification of an equivalent standard.</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Imaging has contributed to some of the most significant advances in biomedicine and healthcare. This one-year MSc will equip you with detailed knowledge of the imaging techniques that are shaping biomedical research and translational medicine around the world. You will develop the skills and research experience needed to progress in this highly sought-after field.</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Advanced Biomedical Imaging Techniques I
 Advanced Biomedical Imaging Techniques II
@@ -1745,114 +1128,114 @@
 Translational Clinical Imaging</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-biomedical-imaging-msc</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>1 academic year (full-time)</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>£32,100</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>总分 6.5, 小分 6.0</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>2:2</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
+    <row r="6">
+      <c r="C6" t="inlineStr">
         <is>
           <t>University College London</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>伦敦大学学院</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Msc Advanced Materials Science (energy Storage)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>A minimum of a second-class Bachelor's degree from a UK university or an overseas qualification of an equivalent standard.</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>With global challenges in climate, environment, healthcare and economy demand, there is increasing need for scientific experts and entrepreneurs who can develop novel materials with advanced properties - addressing critical issues from energy to healthcare - and take scientific discoveries to the commercial world. This degree combines frontline research-based teaching from across UCL to train the next generation of materials scientists.</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Microstructural Control in Advanced Materials
 Materials Design, Selection and Discovery
@@ -1865,52 +1248,669 @@
 Research Project</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-materials-science-energy-storage-msc</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1 calendar year (full-time)</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>£35,000</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Master's Advanced Educational Practice Grad Dip</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>An ordinary degree or level 5 equivalent qualification (e.g. Cambridge International Education Professional Development Qualification studied in English) as this is an Honours level award (i.e. level 6).</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This Graduate Diploma has been developed to enable participants to reflect on their own educational practice, taking a professional academic approach. It works as excellent continuing professional development for teachers, teaching assistants and others working in educational settings. The flexibility is ideal for those working full-time, such that modules can be studied in any order. </t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Independent Study
+Developing Mentoring Practices
+Supporting Learners and Learning
+The Action Researcher: Exploring Contexts and Issues
+Teacher as Author: Curriculum Design and Development
+Developing the Role of the Higher or Further Education Tutor</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-educational-practice-grad-dip</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1 academic year (full-time)</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>January 2023</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>£16,200</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>未找到</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Msc B</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>A minimum of a second-class UK degree in an appropriate subject or an overseas qualification of an equivalent standard. Applicants with extensive experience in the field may also be considered. A design/creative portfolio is also expected. Applicants will be asked to submit a portfolio of their design work once their completed application has been received, and should not send or upload work until it has been requested.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Architectural Design at The Bartlett is invested in the frontiers of advanced architecture and design and its convergence with science and technology. Composed of an international staff of experts and students, this programme is designed to deliver diverse yet focused strands of speculative research, emphasising the key role computation plays within complex design synthesis.</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Architectural Design Thesis Final Project
+Architectural Design Thesis Initial Projects
+Architectural Design: Historical, Cultural and Theoretical Skills
+Bartlett Architecture Skills Elective (B-Pro Courses)
+Design Thesis Report</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-design</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1 calendar year (full-time)</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>£35,000</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>加分项</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>applicants with extensive experience in the field may also be considered.</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>a design/creative portfolio is also expected. applicants will be asked to submit a portfolio of their design work once their completed application has been received, and should not send or upload work until it has been requested.</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Msc Advanced Clinical Practice In Ophthalmology (integrated Degree Apprenticeship)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>A minimum of an upper second-class UK Bachelor's degree in Optometry, Ophthalmology, Orthoptics or Nursing with an Ophthalmic speciality (Ophthalmic nurses who already have OPT level 1 and 2 competencies desirable). Applicants also require a minimum of level 2/GCSE grade C or equivalent in Mathematics and English. In addition, applicants will need to be employed in the UK by an employer with access to apprenticeship funding who is willing to support throughout the course both financially and in completing work e.g. providing a minimum 20% off the job (OTJ) training time, providing an Educational Supervisor to support locally, managing OTJ activities and hours. Applicants will also need to be working at least 30 hours per week for the employer hosting the apprenticeship.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>The aim of this programme is to develop clinical practice and to contribute to the advancement of eye care delivery in primary, secondary or tertiary care settings. The programme has been developed by practicing clinicians for multidisciplinary ophthalmic non-medical clinicians such as optometrists, orthoptists and ophthalmic nurses. The structure of the programme is based on the four pillars of clinical, leadership, education and research.</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Advanced Practice in Cataract
+Fundamental Medical Retina
+Research and Statistics for Non Medical Professionals
+Clinical Leadership for Non Medical Professionals
+Fundamental Glaucoma
+Fundamental Ocular Emergencies
+Principles of Advanced Practice
+Specialist Medical Retina (Medical Retina 2)
+Specialist Ocular Emergencies
+Specialist Glaucoma (Glaucoma 3)</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-clinical-practice-ophthalmology-integrated-degree-apprenticeship-msc</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>3 academic years (flexible)</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Fees to be confirmed</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>总分 7.0, 小分 6.5</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Level 2: Overall score of 7.0 and a minimum of 6.5 in each component</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Msc Advanced Audiology</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. A minimum of a second-class Bachelor's degree in a relevant discipline from a UK university or an overseas qualification of an equivalent standard is the standard entry requirement.The Ear Institute recognises that some audiology professionals may have had different (non-degree) entries into the profession. Applicants with the BAAT qualification and/or a Certificate or Diploma in Hearing Therapy who also have at least five years of relevant clinical experience and appropriate registration with the RCCP may be accepted, depending on their relevant experience, and are encouraged to contact the Ear Institute to discuss their application.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Advanced Audiology is designed for practising audiologists looking to enhance their clinical skills. Graduates are eligible to apply for senior clinical roles in the NHS or private sector. A variety of specialist modules can be selected to suit your professional needs. The programme has a strong research and evidence-based practice foundation.</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Advanced Audiology: Research Project
+Anatomy and Physiology of the Audio-Vestibular System
+Research Methods and Statistics
+Counselling
+Balance
+Signals, Systems, Acoustics and the Ear
+Auditory Processing and Related Disorders
+Vestibular Rehabilitation
+Paediatric Habilitation
+Advances in Auditory Implants
+Advanced Management of Tinnitus and Hyperacusis
+Paediatric Assessment
+Advanced adult rehabilitation</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-msc</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1 calendar year (full-time)</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>September 2023</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>£32,100</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>总分 6.5, 小分 6.0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>applicants need to have at least two years' recent post-qualification clinical experience in audiology or a related discipline. applicants with the baat qualification and/or a certificate or diploma in hearing therapy who also have at least five years of relevant clinical experience and appropriate registration with the rccp may be accepted, depending on their relevant experience, and are encouraged to contact the ear institute to discuss their application.</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>2:2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>University College London</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>伦敦大学学院</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Msc Advanced Audiology: Otology And Skull Base Surgery</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>A UK medical degree or an overseas qualification of an equivalent standard is required. Applicants should also have the relevant postgraduate clinical experience in their parent medical specialty. As there will be clinical placements within the NHS, students will also be expected to satisfy the requirements of the Disclosure and Barring Service (DBS) check and Occupational Health.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>This MSc is structured to provide the theoretical, scientific, clinical, research and vocational skills necessary to practise enhanced otology, audiovestibular medicine and audiology. The programme is designed for ENT surgeons, audiovestibular physicians, paediatricians, GPs, neurologists and other trainees and physicians with an interest in the medical aspects of audiology who wish to develop or enhance their careers or specialise in otology.</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Imaging
+Audio Vestibular Medicine: Research Project
+Anatomy and Physiology of the Audio-Vestibular System
+Research Methods and Statistics
+Medical and Surgical Treatment of Hearing and Balance Disorders
+Lateral Skull Base and Facial Nerve
+Diagnostic Audiology
+Introduction to Amplification and Aural Rehabilitation
+Balance
+Paediatric Audiology
+Auditory Processing and Related Disorders
+Advances in Auditory Implants
+Advanced Management of Tinnitus and Hyperacusis</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-otology-and-skull-base-surgery-msc</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>1 calendar year (full-time)</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>September 2023</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>£35,000</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>总分 6.5, 小分 6.0</t>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>£32,100</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Level 1: Overall score of 6.5 and a minimum of 6.0 in each component</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>未要求</t>
+          <t>总分 7.5, 小分 7.0</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Level 4: Overall score of 7.5 and a minimum of 7.0 in each component</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>需要</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>未要求</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
+          <t>applicants should also have the relevant postgraduate clinical experience in their parent medical specialty.</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>未要求</t>
         </is>
@@ -1922,12 +1922,17 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
+          <t>未要求</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
           <t>2:2</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>2:2</t>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>未要求</t>
         </is>
       </c>
     </row>
